--- a/rekap pembukuan pajak 2023/SPT PPN/08/Rekap FP Agustus 2023.xlsx
+++ b/rekap pembukuan pajak 2023/SPT PPN/08/Rekap FP Agustus 2023.xlsx
@@ -1133,9 +1133,6 @@
     <t>CV RAINBOW NUSANTARA ( PELANGI )</t>
   </si>
   <si>
-    <t>010.010-23.05829869</t>
-  </si>
-  <si>
     <t>AM 23080008</t>
   </si>
   <si>
@@ -2415,6 +2412,9 @@
   </si>
   <si>
     <t>R G</t>
+  </si>
+  <si>
+    <t>011.010-23.05829869</t>
   </si>
 </sst>
 </file>
@@ -2861,8 +2861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E75" workbookViewId="0">
-      <selection activeCell="Q94" sqref="Q94:Q96"/>
+    <sheetView tabSelected="1" topLeftCell="E77" workbookViewId="0">
+      <selection activeCell="Q87" sqref="Q87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7021,11 +7021,11 @@
       </c>
       <c r="J77" s="11">
         <f>J268</f>
-        <v>1270038810.8108103</v>
+        <v>1269969486.486486</v>
       </c>
       <c r="K77" s="11">
         <f>K268</f>
-        <v>139704269.18918917</v>
+        <v>139696643.51351351</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7045,11 +7045,11 @@
       <c r="I79" s="8"/>
       <c r="J79" s="12">
         <f>J77-J78</f>
-        <v>266646676.81081033</v>
+        <v>266577352.48648596</v>
       </c>
       <c r="K79" s="12">
         <f>K77-K78</f>
-        <v>29331164.189189166</v>
+        <v>29323538.513513505</v>
       </c>
     </row>
     <row r="81" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7108,7 +7108,7 @@
       </c>
       <c r="Q82" s="7">
         <f>SUM(L82:L267)</f>
-        <v>1409743080</v>
+        <v>1409666130</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
@@ -7152,7 +7152,7 @@
       </c>
       <c r="Q83" s="7">
         <f>SUM(J82:J267)</f>
-        <v>1270038810.8108103</v>
+        <v>1269969486.486486</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
@@ -7196,7 +7196,7 @@
       </c>
       <c r="Q84" s="7">
         <f>SUM(K82:K267)</f>
-        <v>139704269.18918917</v>
+        <v>139696643.51351351</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
@@ -7278,7 +7278,7 @@
       </c>
       <c r="Q86" s="7">
         <f>SUM(L82:L120)</f>
-        <v>234940003</v>
+        <v>234863053</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
@@ -7322,7 +7322,7 @@
       </c>
       <c r="Q87" s="7">
         <f>SUM(J82:J120)</f>
-        <v>211657660.36036029</v>
+        <v>211588336.03603598</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
@@ -7345,28 +7345,28 @@
         <v>74</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>369</v>
+        <v>796</v>
       </c>
       <c r="I88" s="29">
-        <v>45146</v>
+        <v>45237</v>
       </c>
       <c r="J88" s="37">
         <f t="shared" si="0"/>
-        <v>2079113.5135135134</v>
+        <v>2009789.1891891891</v>
       </c>
       <c r="K88" s="37">
         <f t="shared" si="1"/>
-        <v>228702.48648648648</v>
+        <v>221076.8108108108</v>
       </c>
       <c r="L88" s="33">
-        <v>2307816</v>
+        <v>2230866</v>
       </c>
       <c r="N88" s="19" t="s">
         <v>2</v>
       </c>
       <c r="Q88" s="7">
         <f>SUM(K82:K120)</f>
-        <v>23282342.639639635</v>
+        <v>23274716.963963959</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
@@ -7374,22 +7374,22 @@
         <v>8</v>
       </c>
       <c r="B89" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="C89" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="D89" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="D89" s="16" t="s">
+      <c r="E89" s="17" t="s">
         <v>372</v>
-      </c>
-      <c r="E89" s="17" t="s">
-        <v>373</v>
       </c>
       <c r="F89" s="28" t="s">
         <v>29</v>
       </c>
       <c r="G89" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I89" s="29">
         <v>45146</v>
@@ -7412,10 +7412,10 @@
         <v>9</v>
       </c>
       <c r="B90" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="C90" s="15" t="s">
         <v>375</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>376</v>
       </c>
       <c r="D90" s="16" t="s">
         <v>16</v>
@@ -7427,7 +7427,7 @@
         <v>18</v>
       </c>
       <c r="G90" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I90" s="29">
         <v>45147</v>
@@ -7456,10 +7456,10 @@
         <v>10</v>
       </c>
       <c r="B91" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="C91" s="15" t="s">
         <v>378</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>379</v>
       </c>
       <c r="D91" s="16" t="s">
         <v>20</v>
@@ -7471,7 +7471,7 @@
         <v>22</v>
       </c>
       <c r="G91" s="18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I91" s="29">
         <v>45147</v>
@@ -7501,10 +7501,10 @@
         <v>11</v>
       </c>
       <c r="B92" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="C92" s="15" t="s">
         <v>381</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>382</v>
       </c>
       <c r="D92" s="16" t="s">
         <v>37</v>
@@ -7516,7 +7516,7 @@
         <v>39</v>
       </c>
       <c r="G92" s="18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I92" s="29">
         <v>45148</v>
@@ -7546,10 +7546,10 @@
         <v>12</v>
       </c>
       <c r="B93" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="C93" s="15" t="s">
         <v>384</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>385</v>
       </c>
       <c r="D93" s="16" t="s">
         <v>124</v>
@@ -7561,7 +7561,7 @@
         <v>39</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I93" s="29">
         <v>45148</v>
@@ -7583,10 +7583,10 @@
         <v>13</v>
       </c>
       <c r="B94" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="C94" s="15" t="s">
         <v>387</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>388</v>
       </c>
       <c r="D94" s="16" t="s">
         <v>16</v>
@@ -7598,7 +7598,7 @@
         <v>18</v>
       </c>
       <c r="G94" s="18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I94" s="29">
         <v>45148</v>
@@ -7620,10 +7620,10 @@
         <v>14</v>
       </c>
       <c r="B95" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="C95" s="15" t="s">
         <v>390</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>391</v>
       </c>
       <c r="D95" s="16" t="s">
         <v>122</v>
@@ -7635,7 +7635,7 @@
         <v>36</v>
       </c>
       <c r="G95" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I95" s="29">
         <v>45148</v>
@@ -7657,10 +7657,10 @@
         <v>15</v>
       </c>
       <c r="B96" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="C96" s="15" t="s">
         <v>393</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>394</v>
       </c>
       <c r="D96" s="16" t="s">
         <v>20</v>
@@ -7672,7 +7672,7 @@
         <v>22</v>
       </c>
       <c r="G96" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I96" s="29">
         <v>45148</v>
@@ -7694,22 +7694,22 @@
         <v>16</v>
       </c>
       <c r="B97" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="C97" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="C97" s="15" t="s">
+      <c r="D97" s="21" t="s">
         <v>397</v>
       </c>
-      <c r="D97" s="21" t="s">
+      <c r="E97" s="20" t="s">
         <v>398</v>
-      </c>
-      <c r="E97" s="20" t="s">
-        <v>399</v>
       </c>
       <c r="F97" s="31" t="s">
         <v>138</v>
       </c>
       <c r="G97" s="18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I97" s="29">
         <v>45148</v>
@@ -7731,10 +7731,10 @@
         <v>17</v>
       </c>
       <c r="B98" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C98" s="15" t="s">
         <v>401</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>402</v>
       </c>
       <c r="D98" s="16" t="s">
         <v>16</v>
@@ -7746,7 +7746,7 @@
         <v>18</v>
       </c>
       <c r="G98" s="18" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I98" s="29">
         <v>45149</v>
@@ -7768,10 +7768,10 @@
         <v>18</v>
       </c>
       <c r="B99" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C99" s="15" t="s">
         <v>404</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>405</v>
       </c>
       <c r="D99" s="16" t="s">
         <v>122</v>
@@ -7783,7 +7783,7 @@
         <v>36</v>
       </c>
       <c r="G99" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I99" s="29">
         <v>45150</v>
@@ -7805,10 +7805,10 @@
         <v>19</v>
       </c>
       <c r="B100" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="C100" s="15" t="s">
         <v>407</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>408</v>
       </c>
       <c r="D100" s="16" t="s">
         <v>16</v>
@@ -7820,7 +7820,7 @@
         <v>18</v>
       </c>
       <c r="G100" s="18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I100" s="29">
         <v>45150</v>
@@ -7842,10 +7842,10 @@
         <v>20</v>
       </c>
       <c r="B101" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="C101" s="15" t="s">
         <v>410</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>411</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>16</v>
@@ -7857,7 +7857,7 @@
         <v>18</v>
       </c>
       <c r="G101" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I101" s="29">
         <v>45154</v>
@@ -7879,10 +7879,10 @@
         <v>21</v>
       </c>
       <c r="B102" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="C102" s="15" t="s">
         <v>413</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>414</v>
       </c>
       <c r="D102" s="16" t="s">
         <v>40</v>
@@ -7894,7 +7894,7 @@
         <v>42</v>
       </c>
       <c r="G102" s="18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I102" s="29">
         <v>45154</v>
@@ -7916,10 +7916,10 @@
         <v>22</v>
       </c>
       <c r="B103" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="C103" s="15" t="s">
         <v>416</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>417</v>
       </c>
       <c r="D103" s="21" t="s">
         <v>27</v>
@@ -7931,7 +7931,7 @@
         <v>29</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I103" s="29">
         <v>45154</v>
@@ -7953,10 +7953,10 @@
         <v>23</v>
       </c>
       <c r="B104" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="C104" s="15" t="s">
         <v>419</v>
-      </c>
-      <c r="C104" s="15" t="s">
-        <v>420</v>
       </c>
       <c r="D104" s="16" t="s">
         <v>20</v>
@@ -7968,7 +7968,7 @@
         <v>22</v>
       </c>
       <c r="G104" s="18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I104" s="29">
         <v>45156</v>
@@ -7990,10 +7990,10 @@
         <v>24</v>
       </c>
       <c r="B105" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="C105" s="15" t="s">
         <v>422</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>423</v>
       </c>
       <c r="D105" s="16" t="s">
         <v>16</v>
@@ -8005,7 +8005,7 @@
         <v>18</v>
       </c>
       <c r="G105" s="18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I105" s="29">
         <v>45156</v>
@@ -8027,10 +8027,10 @@
         <v>25</v>
       </c>
       <c r="B106" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="C106" s="15" t="s">
         <v>425</v>
-      </c>
-      <c r="C106" s="15" t="s">
-        <v>426</v>
       </c>
       <c r="D106" s="21" t="s">
         <v>367</v>
@@ -8042,7 +8042,7 @@
         <v>74</v>
       </c>
       <c r="G106" s="18" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I106" s="29">
         <v>45160</v>
@@ -8064,10 +8064,10 @@
         <v>26</v>
       </c>
       <c r="B107" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="C107" s="15" t="s">
         <v>428</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>429</v>
       </c>
       <c r="D107" s="16" t="s">
         <v>40</v>
@@ -8079,7 +8079,7 @@
         <v>42</v>
       </c>
       <c r="G107" s="18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I107" s="29">
         <v>45161</v>
@@ -8101,10 +8101,10 @@
         <v>27</v>
       </c>
       <c r="B108" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="C108" s="15" t="s">
         <v>431</v>
-      </c>
-      <c r="C108" s="15" t="s">
-        <v>432</v>
       </c>
       <c r="D108" s="16" t="s">
         <v>20</v>
@@ -8116,7 +8116,7 @@
         <v>22</v>
       </c>
       <c r="G108" s="18" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I108" s="29">
         <v>45161</v>
@@ -8138,10 +8138,10 @@
         <v>28</v>
       </c>
       <c r="B109" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="C109" s="15" t="s">
         <v>434</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>435</v>
       </c>
       <c r="D109" s="16" t="s">
         <v>16</v>
@@ -8153,7 +8153,7 @@
         <v>18</v>
       </c>
       <c r="G109" s="18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I109" s="29">
         <v>45166</v>
@@ -8175,10 +8175,10 @@
         <v>29</v>
       </c>
       <c r="B110" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="C110" s="15" t="s">
         <v>437</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>438</v>
       </c>
       <c r="D110" s="21" t="s">
         <v>27</v>
@@ -8190,7 +8190,7 @@
         <v>29</v>
       </c>
       <c r="G110" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I110" s="29">
         <v>45162</v>
@@ -8212,10 +8212,10 @@
         <v>30</v>
       </c>
       <c r="B111" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="C111" s="15" t="s">
         <v>440</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>441</v>
       </c>
       <c r="D111" s="16" t="s">
         <v>20</v>
@@ -8227,7 +8227,7 @@
         <v>22</v>
       </c>
       <c r="G111" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I111" s="29">
         <v>45166</v>
@@ -8249,10 +8249,10 @@
         <v>31</v>
       </c>
       <c r="B112" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="C112" s="15" t="s">
         <v>443</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>444</v>
       </c>
       <c r="D112" s="16" t="s">
         <v>23</v>
@@ -8264,7 +8264,7 @@
         <v>25</v>
       </c>
       <c r="G112" s="18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I112" s="29">
         <v>45167</v>
@@ -8286,10 +8286,10 @@
         <v>32</v>
       </c>
       <c r="B113" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="C113" s="15" t="s">
         <v>446</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>447</v>
       </c>
       <c r="D113" s="16" t="s">
         <v>40</v>
@@ -8301,7 +8301,7 @@
         <v>42</v>
       </c>
       <c r="G113" s="18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I113" s="29">
         <v>45169</v>
@@ -8323,10 +8323,10 @@
         <v>33</v>
       </c>
       <c r="B114" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="C114" s="15" t="s">
         <v>449</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>450</v>
       </c>
       <c r="D114" s="16" t="s">
         <v>20</v>
@@ -8338,7 +8338,7 @@
         <v>22</v>
       </c>
       <c r="G114" s="18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I114" s="29">
         <v>45169</v>
@@ -8360,10 +8360,10 @@
         <v>34</v>
       </c>
       <c r="B115" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="C115" s="15" t="s">
         <v>452</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>453</v>
       </c>
       <c r="D115" s="16" t="s">
         <v>122</v>
@@ -8375,7 +8375,7 @@
         <v>36</v>
       </c>
       <c r="G115" s="18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I115" s="29">
         <v>45169</v>
@@ -8397,10 +8397,10 @@
         <v>35</v>
       </c>
       <c r="B116" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="C116" s="15" t="s">
         <v>455</v>
-      </c>
-      <c r="C116" s="15" t="s">
-        <v>456</v>
       </c>
       <c r="D116" s="16" t="s">
         <v>20</v>
@@ -8412,7 +8412,7 @@
         <v>22</v>
       </c>
       <c r="G116" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I116" s="29">
         <v>45169</v>
@@ -8434,10 +8434,10 @@
         <v>36</v>
       </c>
       <c r="B117" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="C117" s="15" t="s">
         <v>458</v>
-      </c>
-      <c r="C117" s="15" t="s">
-        <v>459</v>
       </c>
       <c r="D117" s="16" t="s">
         <v>30</v>
@@ -8449,7 +8449,7 @@
         <v>32</v>
       </c>
       <c r="G117" s="18" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I117" s="29">
         <v>45169</v>
@@ -8471,10 +8471,10 @@
         <v>37</v>
       </c>
       <c r="B118" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="C118" s="15" t="s">
         <v>461</v>
-      </c>
-      <c r="C118" s="15" t="s">
-        <v>462</v>
       </c>
       <c r="D118" s="16" t="s">
         <v>347</v>
@@ -8486,7 +8486,7 @@
         <v>22</v>
       </c>
       <c r="G118" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I118" s="29">
         <v>45169</v>
@@ -8508,10 +8508,10 @@
         <v>38</v>
       </c>
       <c r="B119" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="C119" s="15" t="s">
         <v>464</v>
-      </c>
-      <c r="C119" s="15" t="s">
-        <v>465</v>
       </c>
       <c r="D119" s="16" t="s">
         <v>148</v>
@@ -8523,7 +8523,7 @@
         <v>22</v>
       </c>
       <c r="G119" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I119" s="29">
         <v>45169</v>
@@ -8545,10 +8545,10 @@
         <v>39</v>
       </c>
       <c r="B120" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="C120" s="15" t="s">
         <v>467</v>
-      </c>
-      <c r="C120" s="15" t="s">
-        <v>468</v>
       </c>
       <c r="D120" s="30" t="s">
         <v>34</v>
@@ -8560,7 +8560,7 @@
         <v>22</v>
       </c>
       <c r="G120" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I120" s="29">
         <v>45169</v>
@@ -8582,10 +8582,10 @@
         <v>40</v>
       </c>
       <c r="B121" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="C121" s="15" t="s">
         <v>470</v>
-      </c>
-      <c r="C121" s="15" t="s">
-        <v>471</v>
       </c>
       <c r="D121" s="16"/>
       <c r="E121" s="17" t="s">
@@ -8616,17 +8616,17 @@
         <v>41</v>
       </c>
       <c r="B122" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="C122" s="15" t="s">
         <v>472</v>
-      </c>
-      <c r="C122" s="15" t="s">
-        <v>473</v>
       </c>
       <c r="D122" s="16"/>
       <c r="E122" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="F122" s="8" t="s">
         <v>474</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>475</v>
       </c>
       <c r="G122" s="8"/>
       <c r="I122" s="29">
@@ -8649,10 +8649,10 @@
         <v>42</v>
       </c>
       <c r="B123" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="C123" s="15" t="s">
         <v>476</v>
-      </c>
-      <c r="C123" s="15" t="s">
-        <v>477</v>
       </c>
       <c r="D123" s="16"/>
       <c r="E123" s="17" t="s">
@@ -8683,10 +8683,10 @@
         <v>43</v>
       </c>
       <c r="B124" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C124" s="15" t="s">
         <v>478</v>
-      </c>
-      <c r="C124" s="15" t="s">
-        <v>479</v>
       </c>
       <c r="D124" s="16"/>
       <c r="E124" s="17" t="s">
@@ -8717,10 +8717,10 @@
         <v>44</v>
       </c>
       <c r="B125" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="C125" s="15" t="s">
         <v>480</v>
-      </c>
-      <c r="C125" s="15" t="s">
-        <v>481</v>
       </c>
       <c r="D125" s="16"/>
       <c r="E125" s="17" t="s">
@@ -8750,10 +8750,10 @@
         <v>45</v>
       </c>
       <c r="B126" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="C126" s="15" t="s">
         <v>482</v>
-      </c>
-      <c r="C126" s="15" t="s">
-        <v>483</v>
       </c>
       <c r="D126" s="16"/>
       <c r="E126" s="17" t="s">
@@ -8784,10 +8784,10 @@
         <v>46</v>
       </c>
       <c r="B127" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="C127" s="15" t="s">
         <v>484</v>
-      </c>
-      <c r="C127" s="15" t="s">
-        <v>485</v>
       </c>
       <c r="D127" s="16"/>
       <c r="E127" s="17" t="s">
@@ -8818,10 +8818,10 @@
         <v>47</v>
       </c>
       <c r="B128" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="C128" s="15" t="s">
         <v>486</v>
-      </c>
-      <c r="C128" s="15" t="s">
-        <v>487</v>
       </c>
       <c r="D128" s="16"/>
       <c r="E128" s="17" t="s">
@@ -8851,10 +8851,10 @@
         <v>48</v>
       </c>
       <c r="B129" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="C129" s="15" t="s">
         <v>488</v>
-      </c>
-      <c r="C129" s="15" t="s">
-        <v>489</v>
       </c>
       <c r="D129" s="16"/>
       <c r="E129" s="17" t="s">
@@ -8885,10 +8885,10 @@
         <v>49</v>
       </c>
       <c r="B130" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="C130" s="15" t="s">
         <v>490</v>
-      </c>
-      <c r="C130" s="15" t="s">
-        <v>491</v>
       </c>
       <c r="D130" s="16"/>
       <c r="E130" s="17" t="s">
@@ -8919,10 +8919,10 @@
         <v>50</v>
       </c>
       <c r="B131" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="C131" s="15" t="s">
         <v>492</v>
-      </c>
-      <c r="C131" s="15" t="s">
-        <v>493</v>
       </c>
       <c r="D131" s="16"/>
       <c r="E131" s="17" t="s">
@@ -8953,10 +8953,10 @@
         <v>51</v>
       </c>
       <c r="B132" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="C132" s="15" t="s">
         <v>494</v>
-      </c>
-      <c r="C132" s="15" t="s">
-        <v>495</v>
       </c>
       <c r="D132" s="16"/>
       <c r="E132" s="17" t="s">
@@ -8987,17 +8987,17 @@
         <v>52</v>
       </c>
       <c r="B133" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="C133" s="15" t="s">
         <v>496</v>
-      </c>
-      <c r="C133" s="15" t="s">
-        <v>497</v>
       </c>
       <c r="D133" s="16"/>
       <c r="E133" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="F133" s="28" t="s">
         <v>498</v>
-      </c>
-      <c r="F133" s="28" t="s">
-        <v>499</v>
       </c>
       <c r="G133" s="34"/>
       <c r="I133" s="29">
@@ -9020,14 +9020,14 @@
         <v>53</v>
       </c>
       <c r="B134" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="C134" s="15" t="s">
         <v>500</v>
-      </c>
-      <c r="C134" s="15" t="s">
-        <v>501</v>
       </c>
       <c r="D134" s="16"/>
       <c r="E134" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F134" s="8" t="s">
         <v>104</v>
@@ -9054,10 +9054,10 @@
         <v>54</v>
       </c>
       <c r="B135" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="C135" s="15" t="s">
         <v>503</v>
-      </c>
-      <c r="C135" s="15" t="s">
-        <v>504</v>
       </c>
       <c r="D135" s="16"/>
       <c r="E135" s="17" t="s">
@@ -9088,10 +9088,10 @@
         <v>55</v>
       </c>
       <c r="B136" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="C136" s="15" t="s">
         <v>505</v>
-      </c>
-      <c r="C136" s="15" t="s">
-        <v>506</v>
       </c>
       <c r="D136" s="16"/>
       <c r="E136" s="17" t="s">
@@ -9122,10 +9122,10 @@
         <v>56</v>
       </c>
       <c r="B137" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="C137" s="15" t="s">
         <v>507</v>
-      </c>
-      <c r="C137" s="15" t="s">
-        <v>508</v>
       </c>
       <c r="D137" s="16"/>
       <c r="E137" s="23" t="s">
@@ -9156,17 +9156,17 @@
         <v>57</v>
       </c>
       <c r="B138" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="C138" s="15" t="s">
         <v>509</v>
-      </c>
-      <c r="C138" s="15" t="s">
-        <v>510</v>
       </c>
       <c r="D138" s="16"/>
       <c r="E138" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F138" s="28" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G138" s="34"/>
       <c r="I138" s="29">
@@ -9189,10 +9189,10 @@
         <v>58</v>
       </c>
       <c r="B139" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="C139" s="15" t="s">
         <v>512</v>
-      </c>
-      <c r="C139" s="15" t="s">
-        <v>513</v>
       </c>
       <c r="D139" s="16"/>
       <c r="E139" s="17" t="s">
@@ -9223,17 +9223,17 @@
         <v>59</v>
       </c>
       <c r="B140" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="C140" s="15" t="s">
         <v>514</v>
-      </c>
-      <c r="C140" s="15" t="s">
-        <v>515</v>
       </c>
       <c r="D140" s="16"/>
       <c r="E140" s="17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F140" s="28" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G140" s="34"/>
       <c r="I140" s="29">
@@ -9256,10 +9256,10 @@
         <v>60</v>
       </c>
       <c r="B141" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="C141" s="15" t="s">
         <v>517</v>
-      </c>
-      <c r="C141" s="15" t="s">
-        <v>518</v>
       </c>
       <c r="D141" s="16"/>
       <c r="E141" s="17" t="s">
@@ -9290,14 +9290,14 @@
         <v>61</v>
       </c>
       <c r="B142" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="C142" s="15" t="s">
         <v>519</v>
-      </c>
-      <c r="C142" s="15" t="s">
-        <v>520</v>
       </c>
       <c r="D142" s="16"/>
       <c r="E142" s="17" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F142" s="28" t="s">
         <v>104</v>
@@ -9324,10 +9324,10 @@
         <v>62</v>
       </c>
       <c r="B143" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="C143" s="15" t="s">
         <v>522</v>
-      </c>
-      <c r="C143" s="15" t="s">
-        <v>523</v>
       </c>
       <c r="D143" s="16"/>
       <c r="E143" s="17" t="s">
@@ -9357,10 +9357,10 @@
         <v>63</v>
       </c>
       <c r="B144" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="C144" s="15" t="s">
         <v>524</v>
-      </c>
-      <c r="C144" s="15" t="s">
-        <v>525</v>
       </c>
       <c r="D144" s="16"/>
       <c r="E144" s="17" t="s">
@@ -9391,10 +9391,10 @@
         <v>64</v>
       </c>
       <c r="B145" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="C145" s="15" t="s">
         <v>526</v>
-      </c>
-      <c r="C145" s="15" t="s">
-        <v>527</v>
       </c>
       <c r="D145" s="16"/>
       <c r="E145" s="17" t="s">
@@ -9425,10 +9425,10 @@
         <v>65</v>
       </c>
       <c r="B146" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="C146" s="15" t="s">
         <v>528</v>
-      </c>
-      <c r="C146" s="15" t="s">
-        <v>529</v>
       </c>
       <c r="D146" s="16"/>
       <c r="E146" s="17" t="s">
@@ -9459,10 +9459,10 @@
         <v>66</v>
       </c>
       <c r="B147" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="C147" s="15" t="s">
         <v>530</v>
-      </c>
-      <c r="C147" s="15" t="s">
-        <v>531</v>
       </c>
       <c r="D147" s="16"/>
       <c r="E147" s="17" t="s">
@@ -9493,14 +9493,14 @@
         <v>67</v>
       </c>
       <c r="B148" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="C148" s="15" t="s">
         <v>532</v>
-      </c>
-      <c r="C148" s="15" t="s">
-        <v>533</v>
       </c>
       <c r="D148" s="16"/>
       <c r="E148" s="17" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F148" s="28" t="s">
         <v>29</v>
@@ -9527,10 +9527,10 @@
         <v>68</v>
       </c>
       <c r="B149" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="C149" s="15" t="s">
         <v>535</v>
-      </c>
-      <c r="C149" s="15" t="s">
-        <v>536</v>
       </c>
       <c r="D149" s="16"/>
       <c r="E149" s="17" t="s">
@@ -9561,10 +9561,10 @@
         <v>69</v>
       </c>
       <c r="B150" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="C150" s="15" t="s">
         <v>537</v>
-      </c>
-      <c r="C150" s="15" t="s">
-        <v>538</v>
       </c>
       <c r="D150" s="16"/>
       <c r="E150" s="17" t="s">
@@ -9595,10 +9595,10 @@
         <v>70</v>
       </c>
       <c r="B151" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="C151" s="15" t="s">
         <v>539</v>
-      </c>
-      <c r="C151" s="15" t="s">
-        <v>540</v>
       </c>
       <c r="D151" s="16"/>
       <c r="E151" s="17" t="s">
@@ -9629,14 +9629,14 @@
         <v>71</v>
       </c>
       <c r="B152" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="C152" s="15" t="s">
         <v>541</v>
-      </c>
-      <c r="C152" s="15" t="s">
-        <v>542</v>
       </c>
       <c r="D152" s="16"/>
       <c r="E152" s="17" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F152" s="28" t="s">
         <v>29</v>
@@ -9663,10 +9663,10 @@
         <v>72</v>
       </c>
       <c r="B153" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="C153" s="15" t="s">
         <v>544</v>
-      </c>
-      <c r="C153" s="15" t="s">
-        <v>545</v>
       </c>
       <c r="D153" s="16"/>
       <c r="E153" s="17" t="s">
@@ -9697,14 +9697,14 @@
         <v>73</v>
       </c>
       <c r="B154" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="C154" s="15" t="s">
         <v>546</v>
-      </c>
-      <c r="C154" s="15" t="s">
-        <v>547</v>
       </c>
       <c r="D154" s="16"/>
       <c r="E154" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F154" s="8" t="s">
         <v>29</v>
@@ -9730,14 +9730,14 @@
         <v>74</v>
       </c>
       <c r="B155" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="C155" s="15" t="s">
         <v>549</v>
-      </c>
-      <c r="C155" s="15" t="s">
-        <v>550</v>
       </c>
       <c r="D155" s="16"/>
       <c r="E155" s="17" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F155" s="28" t="s">
         <v>54</v>
@@ -9763,10 +9763,10 @@
         <v>75</v>
       </c>
       <c r="B156" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="C156" s="15" t="s">
         <v>552</v>
-      </c>
-      <c r="C156" s="15" t="s">
-        <v>553</v>
       </c>
       <c r="D156" s="16"/>
       <c r="E156" s="17" t="s">
@@ -9797,10 +9797,10 @@
         <v>76</v>
       </c>
       <c r="B157" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="C157" s="15" t="s">
         <v>554</v>
-      </c>
-      <c r="C157" s="15" t="s">
-        <v>555</v>
       </c>
       <c r="D157" s="16"/>
       <c r="E157" s="17" t="s">
@@ -9830,10 +9830,10 @@
         <v>77</v>
       </c>
       <c r="B158" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="C158" s="15" t="s">
         <v>556</v>
-      </c>
-      <c r="C158" s="15" t="s">
-        <v>557</v>
       </c>
       <c r="D158" s="16"/>
       <c r="E158" s="17" t="s">
@@ -9864,10 +9864,10 @@
         <v>78</v>
       </c>
       <c r="B159" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="C159" s="15" t="s">
         <v>558</v>
-      </c>
-      <c r="C159" s="15" t="s">
-        <v>559</v>
       </c>
       <c r="D159" s="16"/>
       <c r="E159" s="17" t="s">
@@ -9898,14 +9898,14 @@
         <v>79</v>
       </c>
       <c r="B160" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C160" s="15" t="s">
         <v>560</v>
-      </c>
-      <c r="C160" s="15" t="s">
-        <v>561</v>
       </c>
       <c r="D160" s="16"/>
       <c r="E160" s="17" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F160" s="28" t="s">
         <v>57</v>
@@ -9932,10 +9932,10 @@
         <v>80</v>
       </c>
       <c r="B161" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="C161" s="15" t="s">
         <v>563</v>
-      </c>
-      <c r="C161" s="15" t="s">
-        <v>564</v>
       </c>
       <c r="D161" s="16"/>
       <c r="E161" s="17" t="s">
@@ -9966,10 +9966,10 @@
         <v>81</v>
       </c>
       <c r="B162" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="C162" s="15" t="s">
         <v>565</v>
-      </c>
-      <c r="C162" s="15" t="s">
-        <v>566</v>
       </c>
       <c r="D162" s="16"/>
       <c r="E162" s="17" t="s">
@@ -10000,10 +10000,10 @@
         <v>82</v>
       </c>
       <c r="B163" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="C163" s="15" t="s">
         <v>567</v>
-      </c>
-      <c r="C163" s="15" t="s">
-        <v>568</v>
       </c>
       <c r="D163" s="16"/>
       <c r="E163" s="17" t="s">
@@ -10034,10 +10034,10 @@
         <v>83</v>
       </c>
       <c r="B164" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="C164" s="15" t="s">
         <v>569</v>
-      </c>
-      <c r="C164" s="15" t="s">
-        <v>570</v>
       </c>
       <c r="D164" s="16"/>
       <c r="E164" s="17" t="s">
@@ -10068,10 +10068,10 @@
         <v>84</v>
       </c>
       <c r="B165" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="C165" s="15" t="s">
         <v>571</v>
-      </c>
-      <c r="C165" s="15" t="s">
-        <v>572</v>
       </c>
       <c r="D165" s="16"/>
       <c r="E165" s="8" t="s">
@@ -10102,14 +10102,14 @@
         <v>85</v>
       </c>
       <c r="B166" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="C166" s="15" t="s">
         <v>573</v>
-      </c>
-      <c r="C166" s="15" t="s">
-        <v>574</v>
       </c>
       <c r="D166" s="16"/>
       <c r="E166" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F166" s="8" t="s">
         <v>115</v>
@@ -10135,14 +10135,14 @@
         <v>86</v>
       </c>
       <c r="B167" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="C167" s="15" t="s">
         <v>576</v>
-      </c>
-      <c r="C167" s="15" t="s">
-        <v>577</v>
       </c>
       <c r="D167" s="16"/>
       <c r="E167" s="17" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F167" s="28" t="s">
         <v>80</v>
@@ -10169,10 +10169,10 @@
         <v>87</v>
       </c>
       <c r="B168" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="C168" s="15" t="s">
         <v>579</v>
-      </c>
-      <c r="C168" s="15" t="s">
-        <v>580</v>
       </c>
       <c r="D168" s="16"/>
       <c r="E168" s="17" t="s">
@@ -10203,10 +10203,10 @@
         <v>88</v>
       </c>
       <c r="B169" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="C169" s="15" t="s">
         <v>581</v>
-      </c>
-      <c r="C169" s="15" t="s">
-        <v>582</v>
       </c>
       <c r="D169" s="16"/>
       <c r="E169" s="17" t="s">
@@ -10237,10 +10237,10 @@
         <v>89</v>
       </c>
       <c r="B170" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="C170" s="15" t="s">
         <v>583</v>
-      </c>
-      <c r="C170" s="15" t="s">
-        <v>584</v>
       </c>
       <c r="D170" s="16"/>
       <c r="E170" s="17" t="s">
@@ -10271,10 +10271,10 @@
         <v>90</v>
       </c>
       <c r="B171" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="C171" s="15" t="s">
         <v>585</v>
-      </c>
-      <c r="C171" s="15" t="s">
-        <v>586</v>
       </c>
       <c r="D171" s="16"/>
       <c r="E171" s="17" t="s">
@@ -10305,14 +10305,14 @@
         <v>91</v>
       </c>
       <c r="B172" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="C172" s="15" t="s">
         <v>587</v>
-      </c>
-      <c r="C172" s="15" t="s">
-        <v>588</v>
       </c>
       <c r="D172" s="16"/>
       <c r="E172" s="17" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F172" s="28" t="s">
         <v>55</v>
@@ -10338,10 +10338,10 @@
         <v>92</v>
       </c>
       <c r="B173" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="C173" s="15" t="s">
         <v>590</v>
-      </c>
-      <c r="C173" s="15" t="s">
-        <v>591</v>
       </c>
       <c r="D173" s="16"/>
       <c r="E173" s="17" t="s">
@@ -10371,10 +10371,10 @@
         <v>93</v>
       </c>
       <c r="B174" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="C174" s="15" t="s">
         <v>592</v>
-      </c>
-      <c r="C174" s="15" t="s">
-        <v>593</v>
       </c>
       <c r="D174" s="16"/>
       <c r="E174" s="17" t="s">
@@ -10404,10 +10404,10 @@
         <v>94</v>
       </c>
       <c r="B175" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="C175" s="15" t="s">
         <v>594</v>
-      </c>
-      <c r="C175" s="15" t="s">
-        <v>595</v>
       </c>
       <c r="D175" s="16"/>
       <c r="E175" s="17" t="s">
@@ -10438,14 +10438,14 @@
         <v>95</v>
       </c>
       <c r="B176" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="C176" s="15" t="s">
         <v>596</v>
-      </c>
-      <c r="C176" s="15" t="s">
-        <v>597</v>
       </c>
       <c r="D176" s="16"/>
       <c r="E176" s="17" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F176" s="28" t="s">
         <v>72</v>
@@ -10471,10 +10471,10 @@
         <v>96</v>
       </c>
       <c r="B177" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="C177" s="24" t="s">
         <v>599</v>
-      </c>
-      <c r="C177" s="24" t="s">
-        <v>600</v>
       </c>
       <c r="D177" s="22"/>
       <c r="E177" s="25" t="s">
@@ -10504,10 +10504,10 @@
         <v>97</v>
       </c>
       <c r="B178" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="C178" s="15" t="s">
         <v>601</v>
-      </c>
-      <c r="C178" s="15" t="s">
-        <v>602</v>
       </c>
       <c r="D178" s="16"/>
       <c r="E178" s="8" t="s">
@@ -10537,17 +10537,17 @@
         <v>98</v>
       </c>
       <c r="B179" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="C179" s="15" t="s">
         <v>603</v>
-      </c>
-      <c r="C179" s="15" t="s">
-        <v>604</v>
       </c>
       <c r="D179" s="16"/>
       <c r="E179" s="17" t="s">
         <v>60</v>
       </c>
       <c r="F179" s="28" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G179" s="34"/>
       <c r="I179" s="29">
@@ -10570,14 +10570,14 @@
         <v>99</v>
       </c>
       <c r="B180" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="C180" s="15" t="s">
         <v>606</v>
-      </c>
-      <c r="C180" s="15" t="s">
-        <v>607</v>
       </c>
       <c r="D180" s="16"/>
       <c r="E180" s="17" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F180" s="28" t="s">
         <v>86</v>
@@ -10603,10 +10603,10 @@
         <v>100</v>
       </c>
       <c r="B181" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="C181" s="15" t="s">
         <v>609</v>
-      </c>
-      <c r="C181" s="15" t="s">
-        <v>610</v>
       </c>
       <c r="D181" s="16"/>
       <c r="E181" s="17" t="s">
@@ -10637,10 +10637,10 @@
         <v>101</v>
       </c>
       <c r="B182" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C182" s="15" t="s">
         <v>611</v>
-      </c>
-      <c r="C182" s="15" t="s">
-        <v>612</v>
       </c>
       <c r="D182" s="16"/>
       <c r="E182" s="17" t="s">
@@ -10671,10 +10671,10 @@
         <v>102</v>
       </c>
       <c r="B183" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="C183" s="15" t="s">
         <v>613</v>
-      </c>
-      <c r="C183" s="15" t="s">
-        <v>614</v>
       </c>
       <c r="D183" s="16"/>
       <c r="E183" s="17" t="s">
@@ -10705,10 +10705,10 @@
         <v>103</v>
       </c>
       <c r="B184" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="C184" s="15" t="s">
         <v>615</v>
-      </c>
-      <c r="C184" s="15" t="s">
-        <v>616</v>
       </c>
       <c r="D184" s="16"/>
       <c r="E184" s="17" t="s">
@@ -10739,10 +10739,10 @@
         <v>104</v>
       </c>
       <c r="B185" s="14" t="s">
+        <v>616</v>
+      </c>
+      <c r="C185" s="15" t="s">
         <v>617</v>
-      </c>
-      <c r="C185" s="15" t="s">
-        <v>618</v>
       </c>
       <c r="D185" s="16"/>
       <c r="E185" s="17" t="s">
@@ -10772,10 +10772,10 @@
         <v>105</v>
       </c>
       <c r="B186" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="C186" s="15" t="s">
         <v>619</v>
-      </c>
-      <c r="C186" s="15" t="s">
-        <v>620</v>
       </c>
       <c r="D186" s="16"/>
       <c r="E186" s="17" t="s">
@@ -10806,14 +10806,14 @@
         <v>106</v>
       </c>
       <c r="B187" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="C187" s="15" t="s">
         <v>621</v>
-      </c>
-      <c r="C187" s="15" t="s">
-        <v>622</v>
       </c>
       <c r="D187" s="16"/>
       <c r="E187" s="17" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F187" s="28" t="s">
         <v>29</v>
@@ -10840,10 +10840,10 @@
         <v>107</v>
       </c>
       <c r="B188" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="C188" s="24" t="s">
         <v>624</v>
-      </c>
-      <c r="C188" s="24" t="s">
-        <v>625</v>
       </c>
       <c r="D188" s="22"/>
       <c r="E188" s="25" t="s">
@@ -10874,10 +10874,10 @@
         <v>108</v>
       </c>
       <c r="B189" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="C189" s="15" t="s">
         <v>626</v>
-      </c>
-      <c r="C189" s="15" t="s">
-        <v>627</v>
       </c>
       <c r="D189" s="16"/>
       <c r="E189" s="8" t="s">
@@ -10908,10 +10908,10 @@
         <v>109</v>
       </c>
       <c r="B190" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="C190" s="15" t="s">
         <v>628</v>
-      </c>
-      <c r="C190" s="15" t="s">
-        <v>629</v>
       </c>
       <c r="D190" s="16"/>
       <c r="E190" s="17" t="s">
@@ -10942,10 +10942,10 @@
         <v>110</v>
       </c>
       <c r="B191" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="C191" s="15" t="s">
         <v>630</v>
-      </c>
-      <c r="C191" s="15" t="s">
-        <v>631</v>
       </c>
       <c r="D191" s="16"/>
       <c r="E191" s="17" t="s">
@@ -10976,10 +10976,10 @@
         <v>111</v>
       </c>
       <c r="B192" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="C192" s="15" t="s">
         <v>632</v>
-      </c>
-      <c r="C192" s="15" t="s">
-        <v>633</v>
       </c>
       <c r="D192" s="16"/>
       <c r="E192" s="17" t="s">
@@ -11010,10 +11010,10 @@
         <v>112</v>
       </c>
       <c r="B193" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="C193" s="15" t="s">
         <v>634</v>
-      </c>
-      <c r="C193" s="15" t="s">
-        <v>635</v>
       </c>
       <c r="D193" s="16"/>
       <c r="E193" s="17" t="s">
@@ -11043,10 +11043,10 @@
         <v>113</v>
       </c>
       <c r="B194" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="C194" s="15" t="s">
         <v>636</v>
-      </c>
-      <c r="C194" s="15" t="s">
-        <v>637</v>
       </c>
       <c r="D194" s="16"/>
       <c r="E194" s="17" t="s">
@@ -11076,10 +11076,10 @@
         <v>114</v>
       </c>
       <c r="B195" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="C195" s="15" t="s">
         <v>638</v>
-      </c>
-      <c r="C195" s="15" t="s">
-        <v>639</v>
       </c>
       <c r="D195" s="16"/>
       <c r="E195" s="17" t="s">
@@ -11109,10 +11109,10 @@
         <v>115</v>
       </c>
       <c r="B196" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="C196" s="15" t="s">
         <v>640</v>
-      </c>
-      <c r="C196" s="15" t="s">
-        <v>641</v>
       </c>
       <c r="D196" s="16"/>
       <c r="E196" s="17" t="s">
@@ -11143,10 +11143,10 @@
         <v>116</v>
       </c>
       <c r="B197" s="14" t="s">
+        <v>641</v>
+      </c>
+      <c r="C197" s="15" t="s">
         <v>642</v>
-      </c>
-      <c r="C197" s="15" t="s">
-        <v>643</v>
       </c>
       <c r="D197" s="16"/>
       <c r="E197" s="17" t="s">
@@ -11176,10 +11176,10 @@
         <v>117</v>
       </c>
       <c r="B198" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="C198" s="15" t="s">
         <v>644</v>
-      </c>
-      <c r="C198" s="15" t="s">
-        <v>645</v>
       </c>
       <c r="D198" s="16"/>
       <c r="E198" s="17" t="s">
@@ -11209,10 +11209,10 @@
         <v>118</v>
       </c>
       <c r="B199" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="C199" s="24" t="s">
         <v>646</v>
-      </c>
-      <c r="C199" s="24" t="s">
-        <v>647</v>
       </c>
       <c r="D199" s="22"/>
       <c r="E199" s="25" t="s">
@@ -11243,10 +11243,10 @@
         <v>119</v>
       </c>
       <c r="B200" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="C200" s="15" t="s">
         <v>648</v>
-      </c>
-      <c r="C200" s="15" t="s">
-        <v>649</v>
       </c>
       <c r="D200" s="16"/>
       <c r="E200" s="8" t="s">
@@ -11277,14 +11277,14 @@
         <v>120</v>
       </c>
       <c r="B201" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="C201" s="15" t="s">
         <v>650</v>
-      </c>
-      <c r="C201" s="15" t="s">
-        <v>651</v>
       </c>
       <c r="D201" s="16"/>
       <c r="E201" s="17" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F201" s="28" t="s">
         <v>104</v>
@@ -11310,10 +11310,10 @@
         <v>122</v>
       </c>
       <c r="B202" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="C202" s="15" t="s">
         <v>653</v>
-      </c>
-      <c r="C202" s="15" t="s">
-        <v>654</v>
       </c>
       <c r="D202" s="16"/>
       <c r="E202" s="17" t="s">
@@ -11344,10 +11344,10 @@
         <v>123</v>
       </c>
       <c r="B203" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="C203" s="15" t="s">
         <v>655</v>
-      </c>
-      <c r="C203" s="15" t="s">
-        <v>656</v>
       </c>
       <c r="D203" s="16"/>
       <c r="E203" s="17" t="s">
@@ -11377,10 +11377,10 @@
         <v>124</v>
       </c>
       <c r="B204" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="C204" s="15" t="s">
         <v>657</v>
-      </c>
-      <c r="C204" s="15" t="s">
-        <v>658</v>
       </c>
       <c r="D204" s="16"/>
       <c r="E204" s="17" t="s">
@@ -11410,10 +11410,10 @@
         <v>125</v>
       </c>
       <c r="B205" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="C205" s="15" t="s">
         <v>659</v>
-      </c>
-      <c r="C205" s="15" t="s">
-        <v>660</v>
       </c>
       <c r="D205" s="16"/>
       <c r="E205" s="17" t="s">
@@ -11444,10 +11444,10 @@
         <v>126</v>
       </c>
       <c r="B206" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="C206" s="15" t="s">
         <v>661</v>
-      </c>
-      <c r="C206" s="15" t="s">
-        <v>662</v>
       </c>
       <c r="D206" s="16"/>
       <c r="E206" s="17" t="s">
@@ -11477,14 +11477,14 @@
         <v>127</v>
       </c>
       <c r="B207" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="C207" s="15" t="s">
         <v>663</v>
-      </c>
-      <c r="C207" s="15" t="s">
-        <v>664</v>
       </c>
       <c r="D207" s="16"/>
       <c r="E207" s="17" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F207" s="28" t="s">
         <v>86</v>
@@ -11510,10 +11510,10 @@
         <v>128</v>
       </c>
       <c r="B208" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="C208" s="15" t="s">
         <v>666</v>
-      </c>
-      <c r="C208" s="15" t="s">
-        <v>667</v>
       </c>
       <c r="D208" s="16"/>
       <c r="E208" s="17" t="s">
@@ -11544,17 +11544,17 @@
         <v>129</v>
       </c>
       <c r="B209" s="14" t="s">
+        <v>667</v>
+      </c>
+      <c r="C209" s="24" t="s">
         <v>668</v>
-      </c>
-      <c r="C209" s="24" t="s">
-        <v>669</v>
       </c>
       <c r="D209" s="22"/>
       <c r="E209" s="25" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F209" s="18" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G209" s="18"/>
       <c r="I209" s="26">
@@ -11577,10 +11577,10 @@
         <v>130</v>
       </c>
       <c r="B210" s="14" t="s">
+        <v>670</v>
+      </c>
+      <c r="C210" s="15" t="s">
         <v>671</v>
-      </c>
-      <c r="C210" s="15" t="s">
-        <v>672</v>
       </c>
       <c r="D210" s="16"/>
       <c r="E210" s="8" t="s">
@@ -11611,10 +11611,10 @@
         <v>131</v>
       </c>
       <c r="B211" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="C211" s="15" t="s">
         <v>673</v>
-      </c>
-      <c r="C211" s="15" t="s">
-        <v>674</v>
       </c>
       <c r="D211" s="16"/>
       <c r="E211" s="17" t="s">
@@ -11645,10 +11645,10 @@
         <v>132</v>
       </c>
       <c r="B212" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="C212" s="15" t="s">
         <v>675</v>
-      </c>
-      <c r="C212" s="15" t="s">
-        <v>676</v>
       </c>
       <c r="D212" s="16"/>
       <c r="E212" s="17" t="s">
@@ -11678,14 +11678,14 @@
         <v>133</v>
       </c>
       <c r="B213" s="14" t="s">
+        <v>676</v>
+      </c>
+      <c r="C213" s="15" t="s">
         <v>677</v>
-      </c>
-      <c r="C213" s="15" t="s">
-        <v>678</v>
       </c>
       <c r="D213" s="16"/>
       <c r="E213" s="17" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F213" s="28" t="s">
         <v>80</v>
@@ -11712,10 +11712,10 @@
         <v>134</v>
       </c>
       <c r="B214" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C214" s="15" t="s">
         <v>679</v>
-      </c>
-      <c r="C214" s="15" t="s">
-        <v>680</v>
       </c>
       <c r="D214" s="16"/>
       <c r="E214" s="17" t="s">
@@ -11745,14 +11745,14 @@
         <v>135</v>
       </c>
       <c r="B215" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="C215" s="15" t="s">
         <v>681</v>
-      </c>
-      <c r="C215" s="15" t="s">
-        <v>682</v>
       </c>
       <c r="D215" s="16"/>
       <c r="E215" s="17" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F215" s="28" t="s">
         <v>59</v>
@@ -11778,10 +11778,10 @@
         <v>136</v>
       </c>
       <c r="B216" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="C216" s="15" t="s">
         <v>684</v>
-      </c>
-      <c r="C216" s="15" t="s">
-        <v>685</v>
       </c>
       <c r="D216" s="16"/>
       <c r="E216" s="17" t="s">
@@ -11812,10 +11812,10 @@
         <v>137</v>
       </c>
       <c r="B217" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="C217" s="15" t="s">
         <v>686</v>
-      </c>
-      <c r="C217" s="15" t="s">
-        <v>687</v>
       </c>
       <c r="D217" s="16"/>
       <c r="E217" s="17" t="s">
@@ -11846,10 +11846,10 @@
         <v>138</v>
       </c>
       <c r="B218" s="14" t="s">
+        <v>687</v>
+      </c>
+      <c r="C218" s="15" t="s">
         <v>688</v>
-      </c>
-      <c r="C218" s="15" t="s">
-        <v>689</v>
       </c>
       <c r="D218" s="16"/>
       <c r="E218" s="17" t="s">
@@ -11880,10 +11880,10 @@
         <v>139</v>
       </c>
       <c r="B219" s="14" t="s">
+        <v>689</v>
+      </c>
+      <c r="C219" s="15" t="s">
         <v>690</v>
-      </c>
-      <c r="C219" s="15" t="s">
-        <v>691</v>
       </c>
       <c r="D219" s="16"/>
       <c r="E219" s="17" t="s">
@@ -11913,10 +11913,10 @@
         <v>140</v>
       </c>
       <c r="B220" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="C220" s="24" t="s">
         <v>692</v>
-      </c>
-      <c r="C220" s="24" t="s">
-        <v>693</v>
       </c>
       <c r="D220" s="22"/>
       <c r="E220" s="25" t="s">
@@ -11946,10 +11946,10 @@
         <v>141</v>
       </c>
       <c r="B221" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="C221" s="15" t="s">
         <v>694</v>
-      </c>
-      <c r="C221" s="15" t="s">
-        <v>695</v>
       </c>
       <c r="D221" s="16"/>
       <c r="E221" s="17" t="s">
@@ -11980,14 +11980,14 @@
         <v>142</v>
       </c>
       <c r="B222" s="14" t="s">
+        <v>695</v>
+      </c>
+      <c r="C222" s="15" t="s">
         <v>696</v>
-      </c>
-      <c r="C222" s="15" t="s">
-        <v>697</v>
       </c>
       <c r="D222" s="16"/>
       <c r="E222" s="17" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F222" s="28" t="s">
         <v>57</v>
@@ -12013,10 +12013,10 @@
         <v>143</v>
       </c>
       <c r="B223" s="14" t="s">
+        <v>697</v>
+      </c>
+      <c r="C223" s="15" t="s">
         <v>698</v>
-      </c>
-      <c r="C223" s="15" t="s">
-        <v>699</v>
       </c>
       <c r="D223" s="16"/>
       <c r="E223" s="17" t="s">
@@ -12047,14 +12047,14 @@
         <v>144</v>
       </c>
       <c r="B224" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="C224" s="15" t="s">
         <v>700</v>
-      </c>
-      <c r="C224" s="15" t="s">
-        <v>701</v>
       </c>
       <c r="D224" s="16"/>
       <c r="E224" s="17" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F224" s="28" t="s">
         <v>39</v>
@@ -12080,10 +12080,10 @@
         <v>145</v>
       </c>
       <c r="B225" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="C225" s="24" t="s">
         <v>703</v>
-      </c>
-      <c r="C225" s="24" t="s">
-        <v>704</v>
       </c>
       <c r="D225" s="22"/>
       <c r="E225" s="25" t="s">
@@ -12113,10 +12113,10 @@
         <v>146</v>
       </c>
       <c r="B226" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="C226" s="15" t="s">
         <v>705</v>
-      </c>
-      <c r="C226" s="15" t="s">
-        <v>706</v>
       </c>
       <c r="D226" s="16"/>
       <c r="E226" s="17" t="s">
@@ -12147,10 +12147,10 @@
         <v>147</v>
       </c>
       <c r="B227" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="C227" s="15" t="s">
         <v>707</v>
-      </c>
-      <c r="C227" s="15" t="s">
-        <v>708</v>
       </c>
       <c r="D227" s="16"/>
       <c r="E227" s="17" t="s">
@@ -12181,14 +12181,14 @@
         <v>148</v>
       </c>
       <c r="B228" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="C228" s="15" t="s">
         <v>709</v>
-      </c>
-      <c r="C228" s="15" t="s">
-        <v>710</v>
       </c>
       <c r="D228" s="16"/>
       <c r="E228" s="17" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F228" s="28" t="s">
         <v>62</v>
@@ -12214,10 +12214,10 @@
         <v>149</v>
       </c>
       <c r="B229" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="C229" s="15" t="s">
         <v>712</v>
-      </c>
-      <c r="C229" s="15" t="s">
-        <v>713</v>
       </c>
       <c r="D229" s="16"/>
       <c r="E229" s="17" t="s">
@@ -12248,10 +12248,10 @@
         <v>150</v>
       </c>
       <c r="B230" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="C230" s="15" t="s">
         <v>714</v>
-      </c>
-      <c r="C230" s="15" t="s">
-        <v>715</v>
       </c>
       <c r="D230" s="16"/>
       <c r="E230" s="17" t="s">
@@ -12281,10 +12281,10 @@
         <v>151</v>
       </c>
       <c r="B231" s="14" t="s">
+        <v>715</v>
+      </c>
+      <c r="C231" s="15" t="s">
         <v>716</v>
-      </c>
-      <c r="C231" s="15" t="s">
-        <v>717</v>
       </c>
       <c r="D231" s="16"/>
       <c r="E231" s="17" t="s">
@@ -12314,10 +12314,10 @@
         <v>152</v>
       </c>
       <c r="B232" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="C232" s="15" t="s">
         <v>718</v>
-      </c>
-      <c r="C232" s="15" t="s">
-        <v>719</v>
       </c>
       <c r="D232" s="16"/>
       <c r="E232" s="17" t="s">
@@ -12348,10 +12348,10 @@
         <v>153</v>
       </c>
       <c r="B233" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="C233" s="24" t="s">
         <v>720</v>
-      </c>
-      <c r="C233" s="24" t="s">
-        <v>721</v>
       </c>
       <c r="D233" s="22"/>
       <c r="E233" s="25" t="s">
@@ -12381,14 +12381,14 @@
         <v>154</v>
       </c>
       <c r="B234" s="14" t="s">
+        <v>721</v>
+      </c>
+      <c r="C234" s="15" t="s">
         <v>722</v>
-      </c>
-      <c r="C234" s="15" t="s">
-        <v>723</v>
       </c>
       <c r="D234" s="16"/>
       <c r="E234" s="17" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F234" s="28" t="s">
         <v>103</v>
@@ -12415,10 +12415,10 @@
         <v>155</v>
       </c>
       <c r="B235" s="14" t="s">
+        <v>724</v>
+      </c>
+      <c r="C235" s="15" t="s">
         <v>725</v>
-      </c>
-      <c r="C235" s="15" t="s">
-        <v>726</v>
       </c>
       <c r="D235" s="16"/>
       <c r="E235" s="17" t="s">
@@ -12448,14 +12448,14 @@
         <v>156</v>
       </c>
       <c r="B236" s="14" t="s">
+        <v>726</v>
+      </c>
+      <c r="C236" s="15" t="s">
         <v>727</v>
-      </c>
-      <c r="C236" s="15" t="s">
-        <v>728</v>
       </c>
       <c r="D236" s="16"/>
       <c r="E236" s="17" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F236" s="28" t="s">
         <v>139</v>
@@ -12481,10 +12481,10 @@
         <v>157</v>
       </c>
       <c r="B237" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="C237" s="15" t="s">
         <v>730</v>
-      </c>
-      <c r="C237" s="15" t="s">
-        <v>731</v>
       </c>
       <c r="D237" s="16"/>
       <c r="E237" s="17" t="s">
@@ -12514,17 +12514,17 @@
         <v>158</v>
       </c>
       <c r="B238" s="14" t="s">
+        <v>731</v>
+      </c>
+      <c r="C238" s="24" t="s">
         <v>732</v>
-      </c>
-      <c r="C238" s="24" t="s">
-        <v>733</v>
       </c>
       <c r="D238" s="22"/>
       <c r="E238" s="25" t="s">
+        <v>733</v>
+      </c>
+      <c r="F238" s="18" t="s">
         <v>734</v>
-      </c>
-      <c r="F238" s="18" t="s">
-        <v>735</v>
       </c>
       <c r="G238" s="18"/>
       <c r="I238" s="26">
@@ -12547,10 +12547,10 @@
         <v>159</v>
       </c>
       <c r="B239" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="C239" s="15" t="s">
         <v>736</v>
-      </c>
-      <c r="C239" s="15" t="s">
-        <v>737</v>
       </c>
       <c r="D239" s="16"/>
       <c r="E239" s="17" t="s">
@@ -12580,10 +12580,10 @@
         <v>160</v>
       </c>
       <c r="B240" s="14" t="s">
+        <v>737</v>
+      </c>
+      <c r="C240" s="15" t="s">
         <v>738</v>
-      </c>
-      <c r="C240" s="15" t="s">
-        <v>739</v>
       </c>
       <c r="D240" s="16"/>
       <c r="E240" s="17" t="s">
@@ -12613,10 +12613,10 @@
         <v>161</v>
       </c>
       <c r="B241" s="14" t="s">
+        <v>739</v>
+      </c>
+      <c r="C241" s="15" t="s">
         <v>740</v>
-      </c>
-      <c r="C241" s="15" t="s">
-        <v>741</v>
       </c>
       <c r="D241" s="16"/>
       <c r="E241" s="17" t="s">
@@ -12646,10 +12646,10 @@
         <v>162</v>
       </c>
       <c r="B242" s="14" t="s">
+        <v>741</v>
+      </c>
+      <c r="C242" s="15" t="s">
         <v>742</v>
-      </c>
-      <c r="C242" s="15" t="s">
-        <v>743</v>
       </c>
       <c r="D242" s="16"/>
       <c r="E242" s="17" t="s">
@@ -12679,10 +12679,10 @@
         <v>163</v>
       </c>
       <c r="B243" s="14" t="s">
+        <v>743</v>
+      </c>
+      <c r="C243" s="15" t="s">
         <v>744</v>
-      </c>
-      <c r="C243" s="15" t="s">
-        <v>745</v>
       </c>
       <c r="D243" s="16"/>
       <c r="E243" s="17" t="s">
@@ -12712,10 +12712,10 @@
         <v>164</v>
       </c>
       <c r="B244" s="14" t="s">
+        <v>745</v>
+      </c>
+      <c r="C244" s="15" t="s">
         <v>746</v>
-      </c>
-      <c r="C244" s="15" t="s">
-        <v>747</v>
       </c>
       <c r="D244" s="16"/>
       <c r="E244" s="17" t="s">
@@ -12745,10 +12745,10 @@
         <v>165</v>
       </c>
       <c r="B245" s="14" t="s">
+        <v>747</v>
+      </c>
+      <c r="C245" s="15" t="s">
         <v>748</v>
-      </c>
-      <c r="C245" s="15" t="s">
-        <v>749</v>
       </c>
       <c r="D245" s="16"/>
       <c r="E245" s="17" t="s">
@@ -12779,10 +12779,10 @@
         <v>166</v>
       </c>
       <c r="B246" s="14" t="s">
+        <v>749</v>
+      </c>
+      <c r="C246" s="24" t="s">
         <v>750</v>
-      </c>
-      <c r="C246" s="24" t="s">
-        <v>751</v>
       </c>
       <c r="D246" s="22"/>
       <c r="E246" s="17" t="s">
@@ -12813,10 +12813,10 @@
         <v>167</v>
       </c>
       <c r="B247" s="14" t="s">
+        <v>751</v>
+      </c>
+      <c r="C247" s="15" t="s">
         <v>752</v>
-      </c>
-      <c r="C247" s="15" t="s">
-        <v>753</v>
       </c>
       <c r="D247" s="16"/>
       <c r="E247" s="17" t="s">
@@ -12846,10 +12846,10 @@
         <v>168</v>
       </c>
       <c r="B248" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="C248" s="15" t="s">
         <v>754</v>
-      </c>
-      <c r="C248" s="15" t="s">
-        <v>755</v>
       </c>
       <c r="D248" s="16"/>
       <c r="E248" s="17" t="s">
@@ -12880,14 +12880,14 @@
         <v>169</v>
       </c>
       <c r="B249" s="14" t="s">
+        <v>755</v>
+      </c>
+      <c r="C249" s="15" t="s">
         <v>756</v>
-      </c>
-      <c r="C249" s="15" t="s">
-        <v>757</v>
       </c>
       <c r="D249" s="16"/>
       <c r="E249" s="17" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F249" s="28" t="s">
         <v>74</v>
@@ -12913,10 +12913,10 @@
         <v>170</v>
       </c>
       <c r="B250" s="14" t="s">
+        <v>758</v>
+      </c>
+      <c r="C250" s="15" t="s">
         <v>759</v>
-      </c>
-      <c r="C250" s="15" t="s">
-        <v>760</v>
       </c>
       <c r="D250" s="16"/>
       <c r="E250" s="17" t="s">
@@ -12946,10 +12946,10 @@
         <v>171</v>
       </c>
       <c r="B251" s="14" t="s">
+        <v>760</v>
+      </c>
+      <c r="C251" s="15" t="s">
         <v>761</v>
-      </c>
-      <c r="C251" s="15" t="s">
-        <v>762</v>
       </c>
       <c r="D251" s="16"/>
       <c r="E251" s="17" t="s">
@@ -12980,10 +12980,10 @@
         <v>172</v>
       </c>
       <c r="B252" s="14" t="s">
+        <v>762</v>
+      </c>
+      <c r="C252" s="15" t="s">
         <v>763</v>
-      </c>
-      <c r="C252" s="15" t="s">
-        <v>764</v>
       </c>
       <c r="D252" s="16"/>
       <c r="E252" s="17" t="s">
@@ -13014,10 +13014,10 @@
         <v>173</v>
       </c>
       <c r="B253" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="C253" s="15" t="s">
         <v>765</v>
-      </c>
-      <c r="C253" s="15" t="s">
-        <v>766</v>
       </c>
       <c r="D253" s="16"/>
       <c r="E253" s="17" t="s">
@@ -13047,10 +13047,10 @@
         <v>174</v>
       </c>
       <c r="B254" s="14" t="s">
+        <v>766</v>
+      </c>
+      <c r="C254" s="15" t="s">
         <v>767</v>
-      </c>
-      <c r="C254" s="15" t="s">
-        <v>768</v>
       </c>
       <c r="D254" s="16"/>
       <c r="E254" s="17" t="s">
@@ -13081,10 +13081,10 @@
         <v>175</v>
       </c>
       <c r="B255" s="14" t="s">
+        <v>768</v>
+      </c>
+      <c r="C255" s="15" t="s">
         <v>769</v>
-      </c>
-      <c r="C255" s="15" t="s">
-        <v>770</v>
       </c>
       <c r="D255" s="16"/>
       <c r="E255" s="17" t="s">
@@ -13115,10 +13115,10 @@
         <v>176</v>
       </c>
       <c r="B256" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="C256" s="15" t="s">
         <v>771</v>
-      </c>
-      <c r="C256" s="15" t="s">
-        <v>772</v>
       </c>
       <c r="D256" s="16"/>
       <c r="E256" s="17" t="s">
@@ -13149,10 +13149,10 @@
         <v>177</v>
       </c>
       <c r="B257" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="C257" s="24" t="s">
         <v>773</v>
-      </c>
-      <c r="C257" s="24" t="s">
-        <v>774</v>
       </c>
       <c r="D257" s="22"/>
       <c r="E257" s="25" t="s">
@@ -13183,10 +13183,10 @@
         <v>178</v>
       </c>
       <c r="B258" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="C258" s="15" t="s">
         <v>775</v>
-      </c>
-      <c r="C258" s="15" t="s">
-        <v>776</v>
       </c>
       <c r="D258" s="16"/>
       <c r="E258" s="17" t="s">
@@ -13216,14 +13216,14 @@
         <v>179</v>
       </c>
       <c r="B259" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="C259" s="15" t="s">
         <v>777</v>
-      </c>
-      <c r="C259" s="15" t="s">
-        <v>778</v>
       </c>
       <c r="D259" s="16"/>
       <c r="E259" s="17" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F259" s="28" t="s">
         <v>25</v>
@@ -13250,10 +13250,10 @@
         <v>180</v>
       </c>
       <c r="B260" s="14" t="s">
+        <v>779</v>
+      </c>
+      <c r="C260" s="15" t="s">
         <v>780</v>
-      </c>
-      <c r="C260" s="15" t="s">
-        <v>781</v>
       </c>
       <c r="D260" s="16"/>
       <c r="E260" s="17" t="s">
@@ -13283,10 +13283,10 @@
         <v>181</v>
       </c>
       <c r="B261" s="14" t="s">
+        <v>781</v>
+      </c>
+      <c r="C261" s="15" t="s">
         <v>782</v>
-      </c>
-      <c r="C261" s="15" t="s">
-        <v>783</v>
       </c>
       <c r="D261" s="16"/>
       <c r="E261" s="17" t="s">
@@ -13316,10 +13316,10 @@
         <v>182</v>
       </c>
       <c r="B262" s="14" t="s">
+        <v>783</v>
+      </c>
+      <c r="C262" s="24" t="s">
         <v>784</v>
-      </c>
-      <c r="C262" s="24" t="s">
-        <v>785</v>
       </c>
       <c r="D262" s="22"/>
       <c r="E262" s="25" t="s">
@@ -13350,10 +13350,10 @@
         <v>183</v>
       </c>
       <c r="B263" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="C263" s="15" t="s">
         <v>786</v>
-      </c>
-      <c r="C263" s="15" t="s">
-        <v>787</v>
       </c>
       <c r="D263" s="16"/>
       <c r="E263" s="17" t="s">
@@ -13383,10 +13383,10 @@
         <v>184</v>
       </c>
       <c r="B264" s="14" t="s">
+        <v>787</v>
+      </c>
+      <c r="C264" s="15" t="s">
         <v>788</v>
-      </c>
-      <c r="C264" s="15" t="s">
-        <v>789</v>
       </c>
       <c r="D264" s="16"/>
       <c r="E264" s="17" t="s">
@@ -13416,10 +13416,10 @@
         <v>185</v>
       </c>
       <c r="B265" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="C265" s="15" t="s">
         <v>790</v>
-      </c>
-      <c r="C265" s="15" t="s">
-        <v>791</v>
       </c>
       <c r="D265" s="16"/>
       <c r="E265" s="17" t="s">
@@ -13449,10 +13449,10 @@
         <v>186</v>
       </c>
       <c r="B266" s="14" t="s">
+        <v>791</v>
+      </c>
+      <c r="C266" s="15" t="s">
         <v>792</v>
-      </c>
-      <c r="C266" s="15" t="s">
-        <v>793</v>
       </c>
       <c r="D266" s="16"/>
       <c r="E266" s="17" t="s">
@@ -13482,14 +13482,14 @@
         <v>187</v>
       </c>
       <c r="B267" s="14" t="s">
+        <v>793</v>
+      </c>
+      <c r="C267" s="15" t="s">
         <v>794</v>
-      </c>
-      <c r="C267" s="15" t="s">
-        <v>795</v>
       </c>
       <c r="D267" s="16"/>
       <c r="E267" s="17" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F267" s="28" t="s">
         <v>103</v>
@@ -13521,15 +13521,15 @@
       <c r="I268" s="29"/>
       <c r="J268" s="39">
         <f t="shared" ref="J268:L268" si="6">SUM(J82:J267)</f>
-        <v>1270038810.8108103</v>
+        <v>1269969486.486486</v>
       </c>
       <c r="K268" s="39">
         <f t="shared" si="6"/>
-        <v>139704269.18918917</v>
+        <v>139696643.51351351</v>
       </c>
       <c r="L268" s="40">
         <f t="shared" si="6"/>
-        <v>1409743080</v>
+        <v>1409666130</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
@@ -14107,15 +14107,15 @@
     <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J313" s="6">
         <f t="shared" ref="J313:K313" si="7">SUM(J82:J312)</f>
-        <v>2540077621.6216207</v>
+        <v>2539938972.9729719</v>
       </c>
       <c r="K313" s="6">
         <f t="shared" si="7"/>
-        <v>279408538.37837833</v>
+        <v>279393287.02702701</v>
       </c>
       <c r="L313" s="27">
         <f>SUM(L82:L312)</f>
-        <v>2819486160</v>
+        <v>2819332260</v>
       </c>
     </row>
   </sheetData>
